--- a/output/fit_clients/fit_round_351.xlsx
+++ b/output/fit_clients/fit_round_351.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1585484410.773112</v>
+        <v>1843236630.41687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1035966033738913</v>
+        <v>0.1081390812948246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04151171399881663</v>
+        <v>0.03795243449092404</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>792742145.2697175</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2296188566.870919</v>
+        <v>2311589451.939675</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1446378797138088</v>
+        <v>0.1748818644569861</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03499815638224433</v>
+        <v>0.0481136173134168</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1148094369.379076</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4444841507.798331</v>
+        <v>5012223018.797717</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1602912440560849</v>
+        <v>0.1194316437990612</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02804904142244927</v>
+        <v>0.0311250560035593</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>127</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2222420799.596289</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2923622806.64079</v>
+        <v>4063096391.516458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08855891623075278</v>
+        <v>0.08439576516237773</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05036325884782946</v>
+        <v>0.03624568939746214</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1461811478.205778</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2777039971.541763</v>
+        <v>2090945598.58361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1130289622442149</v>
+        <v>0.1011160858487712</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04315947336352259</v>
+        <v>0.0435076404859758</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>66</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1388519931.279234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2443718993.863833</v>
+        <v>2695045980.255188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07713374373025488</v>
+        <v>0.06283201839488087</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03602388553568108</v>
+        <v>0.04419197145907818</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>110</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1221859515.354671</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3543222781.690198</v>
+        <v>3190173510.139206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1683244856111197</v>
+        <v>0.1944726692532661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02348258990646029</v>
+        <v>0.02494047262846097</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>112</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1771611503.900715</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1679671029.52068</v>
+        <v>1514455806.700786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1869629724736203</v>
+        <v>0.1380101551279872</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02805766103396188</v>
+        <v>0.03171714755075412</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>839835585.8268183</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4676262478.39862</v>
+        <v>3690794083.612906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1694487037888055</v>
+        <v>0.1718204824328596</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03458992006258024</v>
+        <v>0.0474607226563506</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>148</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2338131313.432225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4260190233.255443</v>
+        <v>3746705577.399432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1674443722077045</v>
+        <v>0.1637778623162372</v>
       </c>
       <c r="G11" t="n">
-        <v>0.042691465039863</v>
+        <v>0.04363933349833725</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>145</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2130095147.438448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2302402768.907601</v>
+        <v>2323541908.585682</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1713009437282831</v>
+        <v>0.1455732124432156</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0388985091746856</v>
+        <v>0.03434220934299149</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>120</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1151201338.594721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4428037096.797972</v>
+        <v>3990330493.324335</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0628671146332361</v>
+        <v>0.08367249534292752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02596396019338068</v>
+        <v>0.02174801944737175</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>118</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2214018581.596972</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3453467293.304235</v>
+        <v>3726876946.810588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1554385104209615</v>
+        <v>0.1468390267003813</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03653779310652465</v>
+        <v>0.0361175177268903</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>113</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1726733648.257827</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1372171518.074611</v>
+        <v>1622961758.569037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06776626491769108</v>
+        <v>0.07256977576407217</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03545373138347191</v>
+        <v>0.0434402469679764</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>686085815.5663259</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2387423228.293838</v>
+        <v>2114870320.771701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1116127389787853</v>
+        <v>0.09774725147701838</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04794096713532599</v>
+        <v>0.04025778962212399</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>70</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1193711655.03226</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3563101906.870651</v>
+        <v>5177750668.610859</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1529825768471156</v>
+        <v>0.1544316226149134</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03366103079734163</v>
+        <v>0.0512217820638994</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1781551009.657903</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2565106287.585489</v>
+        <v>3608685889.177865</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1259125349724655</v>
+        <v>0.1514862758994476</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03299444356901448</v>
+        <v>0.02704029701587224</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>115</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1282553205.527559</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1254572174.944062</v>
+        <v>1336010258.261881</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1547484546503037</v>
+        <v>0.1398093201855875</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02303648537434297</v>
+        <v>0.02112292460908157</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>627286178.671023</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2664114399.430511</v>
+        <v>2354207741.457727</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1052337382276747</v>
+        <v>0.1303855595746866</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02699951993613329</v>
+        <v>0.02181330769972024</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1332057155.328786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2164480047.257331</v>
+        <v>1995607247.501845</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08798471676124429</v>
+        <v>0.07696077663200417</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03440043573078475</v>
+        <v>0.03670649898734715</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1082240043.874354</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3633597907.759375</v>
+        <v>2689420549.265553</v>
       </c>
       <c r="F22" t="n">
-        <v>0.142803732062894</v>
+        <v>0.1019012805407012</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04746837608438657</v>
+        <v>0.05725670164232709</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1816798977.481827</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1537574816.075011</v>
+        <v>1232205288.339654</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1543227649299974</v>
+        <v>0.1472058269685272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04296599312921303</v>
+        <v>0.03767698043956005</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>768787387.6583008</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3501982016.994955</v>
+        <v>3993671628.204551</v>
       </c>
       <c r="F24" t="n">
-        <v>0.129576404943114</v>
+        <v>0.107923110650356</v>
       </c>
       <c r="G24" t="n">
-        <v>0.023537012104421</v>
+        <v>0.02620445488079031</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>103</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1750991009.990881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1341018979.599382</v>
+        <v>1407716229.602092</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08102703197213901</v>
+        <v>0.08170221738567016</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03027658683895933</v>
+        <v>0.02626992508503351</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>670509475.3255119</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>946524905.4335057</v>
+        <v>1321338026.767322</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0820645129994791</v>
+        <v>0.1086120820314928</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03821433087788235</v>
+        <v>0.03335520491863316</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>473262411.771625</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4192512867.138513</v>
+        <v>3260156402.027252</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1306745812393921</v>
+        <v>0.107620767065286</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01713244624588471</v>
+        <v>0.01735327689193035</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2096256434.153506</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3560919287.554407</v>
+        <v>3491555153.937456</v>
       </c>
       <c r="F28" t="n">
-        <v>0.110065760758262</v>
+        <v>0.1467958264115345</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03920092642411453</v>
+        <v>0.04689822362432639</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1780459703.686182</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5544231076.908925</v>
+        <v>5029259691.106183</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1024860484377165</v>
+        <v>0.1363843738610744</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03134374314412399</v>
+        <v>0.04265259428401702</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>155</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2772115448.317884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2386658149.640701</v>
+        <v>1680062110.252639</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1311422059892926</v>
+        <v>0.1329514466998374</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03551332986900993</v>
+        <v>0.02734831508729232</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1193329156.358305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1080513880.004966</v>
+        <v>942679557.1569717</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07669187660804094</v>
+        <v>0.1069768432357809</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05124471327355967</v>
+        <v>0.04603022417063708</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>540256919.5984992</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1212530060.809995</v>
+        <v>1855100586.684231</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0927784336045918</v>
+        <v>0.1106921991672598</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03593319356145216</v>
+        <v>0.0342854123561618</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>606265039.2357736</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2335001606.665808</v>
+        <v>2355924567.272858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1905767151951519</v>
+        <v>0.1923554013214629</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04057563892296503</v>
+        <v>0.06079716954236995</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1167500855.593268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1316775851.636554</v>
+        <v>1401542584.203878</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1148287534543652</v>
+        <v>0.08498625563533357</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01822757134472461</v>
+        <v>0.02644086285068845</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>658387911.7131331</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1054341337.74643</v>
+        <v>898751089.071915</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07182608273014242</v>
+        <v>0.0802836375162865</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04388185877392858</v>
+        <v>0.03416646286349141</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>527170675.5350987</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2548221470.755791</v>
+        <v>1968402483.457999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1623936465609776</v>
+        <v>0.1573631233359355</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02295470123373156</v>
+        <v>0.0179750326156776</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1274110753.477538</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2640711424.557078</v>
+        <v>1926450699.211346</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0684427623198582</v>
+        <v>0.1001331437968934</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03352013412596016</v>
+        <v>0.03502651357639533</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1320355827.708532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1856511908.888108</v>
+        <v>1655044917.714185</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1155191813696838</v>
+        <v>0.08492480596973079</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03213258047876261</v>
+        <v>0.02731443900094513</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>928255953.3487895</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1366525451.905705</v>
+        <v>1811513619.135111</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1190857502776092</v>
+        <v>0.1591433720418244</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02654650912680571</v>
+        <v>0.02811844116435687</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>683262816.6519215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1368858886.558251</v>
+        <v>1262677068.366242</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1014377469877461</v>
+        <v>0.1483377323566065</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04861731655145392</v>
+        <v>0.05943771970389532</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>684429442.312041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2415863356.410623</v>
+        <v>2384609340.564207</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1224878819624775</v>
+        <v>0.1406869325597352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03354923656412604</v>
+        <v>0.03064467584835723</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1207931711.773992</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4206790258.597028</v>
+        <v>3277617666.981454</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1232733832524829</v>
+        <v>0.0831929319458188</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03202549796780781</v>
+        <v>0.03608959239956328</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2103395172.817511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2408662997.6657</v>
+        <v>2301341325.659354</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1744990398117739</v>
+        <v>0.1698401521269018</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02191200037484424</v>
+        <v>0.02499487148256293</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>125</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1204331556.695702</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1968527645.831158</v>
+        <v>2033681414.85663</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09103348569588658</v>
+        <v>0.09631006332021723</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02494640683090895</v>
+        <v>0.02332547053194477</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>984263922.9725484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2352013141.027468</v>
+        <v>2162814921.058527</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1902381902569417</v>
+        <v>0.1659991974179696</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04009286754639098</v>
+        <v>0.04664556347942203</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1176006596.852808</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4525828713.707631</v>
+        <v>5281866406.205729</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1091013279622365</v>
+        <v>0.1420632117362404</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04572329187434245</v>
+        <v>0.05190514515034386</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>125</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2262914356.539769</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4022785368.316782</v>
+        <v>4080808913.956236</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1482372501302714</v>
+        <v>0.198010233147171</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05780143959226065</v>
+        <v>0.05407615854531066</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>94</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2011392684.630646</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3725607427.297363</v>
+        <v>3946361168.654087</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08522051217319042</v>
+        <v>0.09943071393508937</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02734404031968408</v>
+        <v>0.03094379115779564</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>116</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1862803764.003102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1375446630.078377</v>
+        <v>1407427653.398499</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1519907058735804</v>
+        <v>0.1621868985547055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04072701997532715</v>
+        <v>0.03522397075123502</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>687723366.4465967</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3597898059.779758</v>
+        <v>3173507847.543195</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1754136462950289</v>
+        <v>0.1200740916718188</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04888191631866221</v>
+        <v>0.03351949414211859</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>120</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1798949047.185283</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1267115647.795207</v>
+        <v>1408688956.840447</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1501688167853824</v>
+        <v>0.1333221919296162</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05157866554433471</v>
+        <v>0.03907539672143428</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>633557864.5732132</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3475266757.476057</v>
+        <v>5144565651.938322</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1228832883691208</v>
+        <v>0.1381610847824518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05807156464286929</v>
+        <v>0.05079283817864292</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>145</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1737633466.106045</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3013935742.759158</v>
+        <v>2613254606.525834</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1857457251032733</v>
+        <v>0.156755709234453</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03457347135888647</v>
+        <v>0.03197278050129848</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>100</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1506967902.881779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4169791171.469631</v>
+        <v>3801407312.588348</v>
       </c>
       <c r="F54" t="n">
-        <v>0.117536323837668</v>
+        <v>0.141788271576249</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05274534142055377</v>
+        <v>0.03526901959947362</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>114</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2084895663.129992</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4293316533.279364</v>
+        <v>3810042020.290743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.206484564626806</v>
+        <v>0.1665822269960455</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03108828027540605</v>
+        <v>0.02513102122408256</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2146658254.525417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1240591752.86349</v>
+        <v>1552574198.415635</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1247245791265009</v>
+        <v>0.1300426540480754</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04746491575997682</v>
+        <v>0.0450536304459621</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>620295957.1452405</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2767792316.059162</v>
+        <v>4446017180.604141</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1402390023604496</v>
+        <v>0.1544932863634481</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01772115543369407</v>
+        <v>0.02305908557592396</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>111</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1383896142.945719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1380756100.304815</v>
+        <v>1631513021.217477</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1306199079514091</v>
+        <v>0.1478405609689268</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03878570371393165</v>
+        <v>0.0393516389004946</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>690378092.1790464</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5035918037.161576</v>
+        <v>3483131871.546495</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1146959818207499</v>
+        <v>0.1186654206463068</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03796581903994892</v>
+        <v>0.04338026358543125</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>99</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2517958944.549518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2451123864.938762</v>
+        <v>3690228411.238919</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1338922370018362</v>
+        <v>0.1887584584698747</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03236684835446105</v>
+        <v>0.02333961920026828</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1225561945.253012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2279009800.199526</v>
+        <v>2587828216.040418</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1302980163422172</v>
+        <v>0.1747123165104482</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0271261644105099</v>
+        <v>0.02761580526399584</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>121</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1139504948.572491</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1470602492.171847</v>
+        <v>1521234216.906621</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1945701776992549</v>
+        <v>0.1540772780354175</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03601809053647033</v>
+        <v>0.03579266217105497</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>735301224.7533199</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4398715104.074306</v>
+        <v>4918765542.132268</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06972013989755926</v>
+        <v>0.07701825469468437</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04218570891879434</v>
+        <v>0.03949181953548431</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2199357596.621228</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4602985168.616555</v>
+        <v>3476011420.194351</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1351093397189488</v>
+        <v>0.1843333976386809</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02881535830336698</v>
+        <v>0.02777868406979086</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>109</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2301492662.588041</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4381282185.655528</v>
+        <v>5672115439.151555</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1716529525863471</v>
+        <v>0.1120782085864383</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02568531130789705</v>
+        <v>0.02078070924917312</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>126</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2190641088.655394</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5476924265.083285</v>
+        <v>3713205333.768604</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1069380986931162</v>
+        <v>0.1107474340328319</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03888251462986658</v>
+        <v>0.04022167140558883</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2738462185.234299</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2725631262.977534</v>
+        <v>2583028627.411362</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09649552402928335</v>
+        <v>0.06450909481984214</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04415155788363696</v>
+        <v>0.03110742156072795</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>113</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1362815673.02373</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4003627935.395718</v>
+        <v>4321034915.990952</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09719821574103873</v>
+        <v>0.1398051076985392</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03292038677336643</v>
+        <v>0.03255020732502751</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2001813963.72604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2203551259.685153</v>
+        <v>1736311032.314133</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1440186584628673</v>
+        <v>0.132857244578979</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03963381616214978</v>
+        <v>0.04588868156144405</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1101775661.104602</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3165503584.194709</v>
+        <v>2566425140.796902</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08155358357285002</v>
+        <v>0.09949749545332252</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02993651373464372</v>
+        <v>0.04289487529995749</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>100</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1582751779.827043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5362874674.083414</v>
+        <v>4915901112.634535</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1523011041847633</v>
+        <v>0.1516324603374064</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03350495755265005</v>
+        <v>0.03395385499429762</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>128</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2681437469.829417</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1962361623.771286</v>
+        <v>1674821230.650384</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07399264193651668</v>
+        <v>0.07221658131507207</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04253993585327556</v>
+        <v>0.03568193191737567</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>981180764.3068724</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3503871317.963696</v>
+        <v>2479319785.474995</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08535786309005033</v>
+        <v>0.07472309996989736</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04084258429554111</v>
+        <v>0.04794511610070009</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>134</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1751935608.826005</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2671016623.749367</v>
+        <v>3653999450.227944</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1791578312739935</v>
+        <v>0.1625170446151839</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02893092539884114</v>
+        <v>0.03340505386751867</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>120</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1335508405.72225</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1985304704.978509</v>
+        <v>1507999927.891562</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1332825305259263</v>
+        <v>0.1371246141399051</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02788866589899806</v>
+        <v>0.03437426846041777</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>992652318.1245278</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3490419110.138798</v>
+        <v>3926725993.922488</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08026968588479809</v>
+        <v>0.1056701457898847</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02224126945113556</v>
+        <v>0.02668507743579507</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>78</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1745209518.444051</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1772358283.496183</v>
+        <v>2265370175.56886</v>
       </c>
       <c r="F77" t="n">
-        <v>0.143343636446091</v>
+        <v>0.1616721894899631</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02092067345384628</v>
+        <v>0.02236630525827428</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>886179169.6582292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3773731729.788076</v>
+        <v>3509440565.317571</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1192323746379754</v>
+        <v>0.09986740503666926</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05683648732919934</v>
+        <v>0.05494396249630391</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>122</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1886865846.831684</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1750022482.700016</v>
+        <v>1850724492.910853</v>
       </c>
       <c r="F79" t="n">
-        <v>0.138757870709493</v>
+        <v>0.1535176807208194</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02645327212906733</v>
+        <v>0.02688065121228878</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>875011319.2977116</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5543026144.570599</v>
+        <v>4625740335.428145</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07738634390466677</v>
+        <v>0.09018127145890548</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02741101972529614</v>
+        <v>0.02981246540750289</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2771513148.507882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4782163933.447043</v>
+        <v>4903709600.274874</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1194468222673762</v>
+        <v>0.125902290349011</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02989738282581736</v>
+        <v>0.02833086235825788</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2391081958.994605</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3457351904.685425</v>
+        <v>3774742617.820412</v>
       </c>
       <c r="F82" t="n">
-        <v>0.19764911275979</v>
+        <v>0.1872090623975897</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02109419986834628</v>
+        <v>0.02697201808840521</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>123</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1728676022.388564</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1710841569.192261</v>
+        <v>1804360577.389188</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1094018057160157</v>
+        <v>0.1280346863226871</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04089691150172794</v>
+        <v>0.03445543416010791</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>855420733.8952065</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2252478951.555537</v>
+        <v>2099162939.223051</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1129630344908049</v>
+        <v>0.1097588208377377</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03574150908428488</v>
+        <v>0.03722989472966519</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1126239443.823955</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2342534270.797915</v>
+        <v>3078556710.977477</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1117325078198441</v>
+        <v>0.1520893435974487</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04469799270178083</v>
+        <v>0.05054685417052981</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>132</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1171267122.997062</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2056713378.04196</v>
+        <v>2266444345.413168</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1632340234745513</v>
+        <v>0.1371526587305076</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02019198720026872</v>
+        <v>0.02542771611175969</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1028356724.546863</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1307617694.710857</v>
+        <v>948998481.6044919</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1152060191441057</v>
+        <v>0.1856218245907978</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03554261328795285</v>
+        <v>0.04368245290088886</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>653808930.5479088</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3052097386.020622</v>
+        <v>2743952689.092185</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1428411115058795</v>
+        <v>0.1400256778231764</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02937594526527649</v>
+        <v>0.03120158259769411</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>139</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1526048728.626561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2638292453.477631</v>
+        <v>2256533969.472403</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09803647264409646</v>
+        <v>0.1177953588307538</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03968431845309414</v>
+        <v>0.03604729657728575</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>119</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1319146291.360249</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1472661976.347512</v>
+        <v>1902732233.728654</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0837992893332417</v>
+        <v>0.127512684004949</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05294693678501214</v>
+        <v>0.05502231519046393</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>736330961.939545</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1714534191.504591</v>
+        <v>1514548516.387161</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1741510230671773</v>
+        <v>0.1685662056299733</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04904929686020773</v>
+        <v>0.05888944577381006</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>857267106.081424</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1990439319.270721</v>
+        <v>1868595358.864208</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1045233903171432</v>
+        <v>0.08747338422639545</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03663481055443579</v>
+        <v>0.03871874520834637</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>95</v>
-      </c>
-      <c r="J92" t="n">
-        <v>995219605.0909965</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4748110410.810433</v>
+        <v>4886002777.944457</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1339525697454502</v>
+        <v>0.1410533324313568</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04012931853575844</v>
+        <v>0.05332780441188614</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2374055157.656376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1642660495.39134</v>
+        <v>1691011489.386366</v>
       </c>
       <c r="F94" t="n">
-        <v>0.147596077867324</v>
+        <v>0.1056642045767689</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03012687215684838</v>
+        <v>0.04012092124519229</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>821330199.6012951</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2846230186.747709</v>
+        <v>2358980377.993898</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1142152217512533</v>
+        <v>0.1208991226846216</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03836565640227461</v>
+        <v>0.05287100103098055</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>87</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1423115104.328912</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1549732683.990659</v>
+        <v>1927802666.346136</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1218391987635137</v>
+        <v>0.1140761301597055</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04606069885134534</v>
+        <v>0.04382387788713171</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>774866377.038096</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4081447293.745212</v>
+        <v>4359504334.018763</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1686323681780672</v>
+        <v>0.1075726181543913</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02447848657058899</v>
+        <v>0.0264600209561076</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2040723709.819993</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2372637249.402983</v>
+        <v>3421809358.023502</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1020341163564194</v>
+        <v>0.1078357592996911</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02744048502613573</v>
+        <v>0.02465874393232019</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1186318566.84575</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2583815221.748052</v>
+        <v>3390604199.009972</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1416093908149715</v>
+        <v>0.1366551953916609</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03465957495206595</v>
+        <v>0.02471589542311345</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1291907566.727752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3938515020.503438</v>
+        <v>3612189233.91612</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1086477009577571</v>
+        <v>0.1513826255210061</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02714116161783099</v>
+        <v>0.02196412481268472</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1969257576.031243</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3507609103.044543</v>
+        <v>2547298778.40187</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1362670992523176</v>
+        <v>0.1891255773860046</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04868989886820348</v>
+        <v>0.05780399659949541</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>142</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1753804707.713401</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_351.xlsx
+++ b/output/fit_clients/fit_round_351.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1843236630.41687</v>
+        <v>2263094123.811535</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1081390812948246</v>
+        <v>0.09077907519448465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03795243449092404</v>
+        <v>0.04305757558361845</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2311589451.939675</v>
+        <v>1643852080.974869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1748818644569861</v>
+        <v>0.1649367367036974</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0481136173134168</v>
+        <v>0.03600678478297991</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5012223018.797717</v>
+        <v>3452466075.302135</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1194316437990612</v>
+        <v>0.1438174400139337</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0311250560035593</v>
+        <v>0.02935702530114933</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4063096391.516458</v>
+        <v>2881531286.090494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08439576516237773</v>
+        <v>0.09665490628891349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03624568939746214</v>
+        <v>0.04771094649728052</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2090945598.58361</v>
+        <v>2078601431.622121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1011160858487712</v>
+        <v>0.1187732344024117</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0435076404859758</v>
+        <v>0.04388431928660739</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2695045980.255188</v>
+        <v>2811119329.68044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06283201839488087</v>
+        <v>0.09655278971981857</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04419197145907818</v>
+        <v>0.03531317748586181</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3190173510.139206</v>
+        <v>3679873702.828506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1944726692532661</v>
+        <v>0.1899528744373301</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02494047262846097</v>
+        <v>0.02936757937136737</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1514455806.700786</v>
+        <v>2061976211.341856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1380101551279872</v>
+        <v>0.1398820406357384</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03171714755075412</v>
+        <v>0.02354546819928927</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3690794083.612906</v>
+        <v>5510139960.273178</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1718204824328596</v>
+        <v>0.1611207053353538</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0474607226563506</v>
+        <v>0.03613059734070653</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3746705577.399432</v>
+        <v>4096836852.043008</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1637778623162372</v>
+        <v>0.1346403210967942</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04363933349833725</v>
+        <v>0.03797402947176907</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2323541908.585682</v>
+        <v>2295192804.417644</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1455732124432156</v>
+        <v>0.1641200467269961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03434220934299149</v>
+        <v>0.04377269337400871</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3990330493.324335</v>
+        <v>3406477107.490905</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08367249534292752</v>
+        <v>0.1013985375748443</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02174801944737175</v>
+        <v>0.03100068515500786</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3726876946.810588</v>
+        <v>3310214294.855275</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1468390267003813</v>
+        <v>0.1444662035001074</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0361175177268903</v>
+        <v>0.03152326256974586</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1622961758.569037</v>
+        <v>1169744615.41384</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07256977576407217</v>
+        <v>0.1043014723393679</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0434402469679764</v>
+        <v>0.04438378155871742</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2114870320.771701</v>
+        <v>1801416115.703394</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09774725147701838</v>
+        <v>0.1037269226448307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04025778962212399</v>
+        <v>0.0341539925435466</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5177750668.610859</v>
+        <v>3533542263.480778</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1544316226149134</v>
+        <v>0.1186741931610141</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0512217820638994</v>
+        <v>0.03369682630426594</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3608685889.177865</v>
+        <v>2739534647.09013</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1514862758994476</v>
+        <v>0.1530244888146822</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02704029701587224</v>
+        <v>0.03182812561286977</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1336010258.261881</v>
+        <v>1285997769.827939</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1398093201855875</v>
+        <v>0.1803893549146525</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02112292460908157</v>
+        <v>0.02184170669869865</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2354207741.457727</v>
+        <v>2187027221.313733</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1303855595746866</v>
+        <v>0.117491267257174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02181330769972024</v>
+        <v>0.02397860502039275</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1995607247.501845</v>
+        <v>1701978836.082416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07696077663200417</v>
+        <v>0.1007681139964907</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03670649898734715</v>
+        <v>0.04508194052587167</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2689420549.265553</v>
+        <v>2941284587.388066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1019012805407012</v>
+        <v>0.08777968895287108</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05725670164232709</v>
+        <v>0.04502298284931662</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1232205288.339654</v>
+        <v>1192859034.778297</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1472058269685272</v>
+        <v>0.1667789973205865</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03767698043956005</v>
+        <v>0.0331971258337343</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3993671628.204551</v>
+        <v>2570285101.35457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.107923110650356</v>
+        <v>0.09970676793004218</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02620445488079031</v>
+        <v>0.03149239594707315</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1407716229.602092</v>
+        <v>950444426.8168415</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08170221738567016</v>
+        <v>0.1052839168466273</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02626992508503351</v>
+        <v>0.02804725143057872</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1321338026.767322</v>
+        <v>1365617206.302026</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1086120820314928</v>
+        <v>0.1003511327256123</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03335520491863316</v>
+        <v>0.03275793247661299</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3260156402.027252</v>
+        <v>2890842112.738681</v>
       </c>
       <c r="F27" t="n">
-        <v>0.107620767065286</v>
+        <v>0.1482382376537875</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01735327689193035</v>
+        <v>0.02515730388247596</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3491555153.937456</v>
+        <v>2730963590.590867</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1467958264115345</v>
+        <v>0.1153580021056288</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04689822362432639</v>
+        <v>0.03465062610055401</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5029259691.106183</v>
+        <v>3898335697.559052</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1363843738610744</v>
+        <v>0.1169759670381817</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04265259428401702</v>
+        <v>0.04550474098235217</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1680062110.252639</v>
+        <v>1844188556.580494</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1329514466998374</v>
+        <v>0.1300907867263065</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02734831508729232</v>
+        <v>0.0369066805738372</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>942679557.1569717</v>
+        <v>1018092904.594785</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1069768432357809</v>
+        <v>0.0710322578002303</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04603022417063708</v>
+        <v>0.05261208739248928</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1855100586.684231</v>
+        <v>1369841837.092458</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1106921991672598</v>
+        <v>0.1064584066181817</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0342854123561618</v>
+        <v>0.02350624577693364</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2355924567.272858</v>
+        <v>2442366075.84082</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1923554013214629</v>
+        <v>0.202193721385525</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06079716954236995</v>
+        <v>0.04007061242576863</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1401542584.203878</v>
+        <v>1259920884.875696</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08498625563533357</v>
+        <v>0.07739467922418442</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02644086285068845</v>
+        <v>0.01960609704506494</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>898751089.071915</v>
+        <v>1076851678.113662</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0802836375162865</v>
+        <v>0.07304305888440593</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03416646286349141</v>
+        <v>0.03045364958061704</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1968402483.457999</v>
+        <v>2839139188.681475</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1573631233359355</v>
+        <v>0.1166394585868758</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0179750326156776</v>
+        <v>0.02092218092614487</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1926450699.211346</v>
+        <v>2605558196.925823</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1001331437968934</v>
+        <v>0.08515117759392397</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03502651357639533</v>
+        <v>0.03098519416073327</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1655044917.714185</v>
+        <v>1881539103.011063</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08492480596973079</v>
+        <v>0.1002501413415221</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02731443900094513</v>
+        <v>0.02732352340870421</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1811513619.135111</v>
+        <v>1518618603.462854</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1591433720418244</v>
+        <v>0.1941150769231516</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02811844116435687</v>
+        <v>0.0329024684061984</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1262677068.366242</v>
+        <v>1709990147.112471</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1483377323566065</v>
+        <v>0.115422514643724</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05943771970389532</v>
+        <v>0.05424682760504384</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2384609340.564207</v>
+        <v>2835106842.394681</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1406869325597352</v>
+        <v>0.1406763023709888</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03064467584835723</v>
+        <v>0.03128912301498499</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3277617666.981454</v>
+        <v>4192204616.898798</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0831929319458188</v>
+        <v>0.07793092552628178</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03608959239956328</v>
+        <v>0.03890612462553815</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2301341325.659354</v>
+        <v>2128537035.062536</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1698401521269018</v>
+        <v>0.1552470509355187</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02499487148256293</v>
+        <v>0.01936385329060289</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2033681414.85663</v>
+        <v>1429784797.99202</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09631006332021723</v>
+        <v>0.09086968724740804</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02332547053194477</v>
+        <v>0.02794847095976636</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2162814921.058527</v>
+        <v>2142357437.729438</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1659991974179696</v>
+        <v>0.1692856873270296</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04664556347942203</v>
+        <v>0.05182303220030585</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5281866406.205729</v>
+        <v>5437176008.904302</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1420632117362404</v>
+        <v>0.1097306517910473</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05190514515034386</v>
+        <v>0.06015307431475038</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4080808913.956236</v>
+        <v>4316614517.575674</v>
       </c>
       <c r="F47" t="n">
-        <v>0.198010233147171</v>
+        <v>0.1304019472418897</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05407615854531066</v>
+        <v>0.04825101287726443</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3946361168.654087</v>
+        <v>3014779223.996273</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09943071393508937</v>
+        <v>0.1047200547186132</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03094379115779564</v>
+        <v>0.03906840873604564</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1407427653.398499</v>
+        <v>1833558768.831342</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1621868985547055</v>
+        <v>0.1524112360814635</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03522397075123502</v>
+        <v>0.03751008041906311</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3173507847.543195</v>
+        <v>4107872948.632238</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1200740916718188</v>
+        <v>0.1306964488475446</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03351949414211859</v>
+        <v>0.04956579459182064</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1408688956.840447</v>
+        <v>1024901850.560679</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1333221919296162</v>
+        <v>0.1418045460502929</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03907539672143428</v>
+        <v>0.04210465127826102</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5144565651.938322</v>
+        <v>4111608779.537928</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1381610847824518</v>
+        <v>0.1045131497870312</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05079283817864292</v>
+        <v>0.04757696835684982</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2613254606.525834</v>
+        <v>3346080093.869588</v>
       </c>
       <c r="F53" t="n">
-        <v>0.156755709234453</v>
+        <v>0.162811525366597</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03197278050129848</v>
+        <v>0.02593993136271835</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3801407312.588348</v>
+        <v>3762505493.89407</v>
       </c>
       <c r="F54" t="n">
-        <v>0.141788271576249</v>
+        <v>0.1061440852059863</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03526901959947362</v>
+        <v>0.04891611686698791</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3810042020.290743</v>
+        <v>4056037807.244762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1665822269960455</v>
+        <v>0.1429446815377597</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02513102122408256</v>
+        <v>0.03019531568868462</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1552574198.415635</v>
+        <v>1611639312.781126</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1300426540480754</v>
+        <v>0.157126662440011</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0450536304459621</v>
+        <v>0.05146430307515019</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4446017180.604141</v>
+        <v>4537456392.559894</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1544932863634481</v>
+        <v>0.1184976238805492</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02305908557592396</v>
+        <v>0.02052304099383179</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1631513021.217477</v>
+        <v>1391400785.816213</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1478405609689268</v>
+        <v>0.1368028718064261</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0393516389004946</v>
+        <v>0.03640553734136528</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3483131871.546495</v>
+        <v>5254505291.865845</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1186654206463068</v>
+        <v>0.1294267893952084</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04338026358543125</v>
+        <v>0.04055417463824876</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3690228411.238919</v>
+        <v>2463569338.774057</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1887584584698747</v>
+        <v>0.1652458358305936</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02333961920026828</v>
+        <v>0.02765901367772916</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2587828216.040418</v>
+        <v>2383996896.743075</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1747123165104482</v>
+        <v>0.1604750899984451</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02761580526399584</v>
+        <v>0.0261089991507889</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1521234216.906621</v>
+        <v>1593737333.724627</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1540772780354175</v>
+        <v>0.1819157203364478</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03579266217105497</v>
+        <v>0.04460269113351286</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4918765542.132268</v>
+        <v>5210994154.833401</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07701825469468437</v>
+        <v>0.09979139591045966</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03949181953548431</v>
+        <v>0.04412590712128578</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3476011420.194351</v>
+        <v>3757377485.6258</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1843333976386809</v>
+        <v>0.1676899603221531</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02777868406979086</v>
+        <v>0.02401903131017314</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5672115439.151555</v>
+        <v>4003817480.459959</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1120782085864383</v>
+        <v>0.1069064279124034</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02078070924917312</v>
+        <v>0.02952140304823759</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3713205333.768604</v>
+        <v>5029482850.661206</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1107474340328319</v>
+        <v>0.141830715764956</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04022167140558883</v>
+        <v>0.04387973994347672</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2583028627.411362</v>
+        <v>2378712144.921481</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06450909481984214</v>
+        <v>0.09394592358437938</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03110742156072795</v>
+        <v>0.04477462318811992</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4321034915.990952</v>
+        <v>3822935124.974324</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1398051076985392</v>
+        <v>0.1179365911822891</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03255020732502751</v>
+        <v>0.05060868424591661</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1736311032.314133</v>
+        <v>2196044432.29997</v>
       </c>
       <c r="F69" t="n">
-        <v>0.132857244578979</v>
+        <v>0.1333655143783</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04588868156144405</v>
+        <v>0.05860175940908376</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2566425140.796902</v>
+        <v>2637440882.849014</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09949749545332252</v>
+        <v>0.09146530034406243</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04289487529995749</v>
+        <v>0.04712477295009361</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4915901112.634535</v>
+        <v>3575191424.586737</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1516324603374064</v>
+        <v>0.1839546318523969</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03395385499429762</v>
+        <v>0.02871376787022848</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1674821230.650384</v>
+        <v>2016324564.348603</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07221658131507207</v>
+        <v>0.06842344926227044</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03568193191737567</v>
+        <v>0.03838036041517585</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2479319785.474995</v>
+        <v>2916616633.757766</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07472309996989736</v>
+        <v>0.09862250637871992</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04794511610070009</v>
+        <v>0.0520967877983978</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3653999450.227944</v>
+        <v>3388673069.939775</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1625170446151839</v>
+        <v>0.1324495772897717</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03340505386751867</v>
+        <v>0.03030871266148662</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1507999927.891562</v>
+        <v>1568780485.73667</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1371246141399051</v>
+        <v>0.1408364597611589</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03437426846041777</v>
+        <v>0.03606157492704849</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3926725993.922488</v>
+        <v>3723021396.94575</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1056701457898847</v>
+        <v>0.08211350456351076</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02668507743579507</v>
+        <v>0.02452038595755743</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2265370175.56886</v>
+        <v>1400529763.891793</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1616721894899631</v>
+        <v>0.1240876811940596</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02236630525827428</v>
+        <v>0.01982451320818952</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3509440565.317571</v>
+        <v>3043926977.557879</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09986740503666926</v>
+        <v>0.1141850288143446</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05494396249630391</v>
+        <v>0.05079385261162987</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1850724492.910853</v>
+        <v>1767612655.970849</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1535176807208194</v>
+        <v>0.1365426556992307</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02688065121228878</v>
+        <v>0.03115210915730538</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4625740335.428145</v>
+        <v>3756012066.124349</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09018127145890548</v>
+        <v>0.06894303377997632</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02981246540750289</v>
+        <v>0.03524916391802956</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4903709600.274874</v>
+        <v>4351382839.837304</v>
       </c>
       <c r="F81" t="n">
-        <v>0.125902290349011</v>
+        <v>0.09843715870726449</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02833086235825788</v>
+        <v>0.02569025621010423</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3774742617.820412</v>
+        <v>4174883864.30831</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1872090623975897</v>
+        <v>0.1559450014563745</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02697201808840521</v>
+        <v>0.02013549601534275</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1804360577.389188</v>
+        <v>1537889431.70414</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1280346863226871</v>
+        <v>0.1496439372005306</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03445543416010791</v>
+        <v>0.04483781516383339</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2099162939.223051</v>
+        <v>2379588943.642207</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1097588208377377</v>
+        <v>0.1158575654333874</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03722989472966519</v>
+        <v>0.04155189835420093</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3078556710.977477</v>
+        <v>3205609140.681606</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1520893435974487</v>
+        <v>0.1328879924514694</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05054685417052981</v>
+        <v>0.04474830407771349</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2266444345.413168</v>
+        <v>1752897296.491622</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1371526587305076</v>
+        <v>0.1054168753855622</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02542771611175969</v>
+        <v>0.01790054061101637</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>948998481.6044919</v>
+        <v>1044571794.850847</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1856218245907978</v>
+        <v>0.1181323780678025</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04368245290088886</v>
+        <v>0.03164194864136535</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2743952689.092185</v>
+        <v>2671194530.223333</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1400256778231764</v>
+        <v>0.137346160069185</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03120158259769411</v>
+        <v>0.03079548620230626</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2256533969.472403</v>
+        <v>2577124417.781541</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1177953588307538</v>
+        <v>0.1298450417280491</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03604729657728575</v>
+        <v>0.04043180921383988</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1902732233.728654</v>
+        <v>1336084778.972453</v>
       </c>
       <c r="F90" t="n">
-        <v>0.127512684004949</v>
+        <v>0.1048184623140714</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05502231519046393</v>
+        <v>0.05567226677976085</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1514548516.387161</v>
+        <v>1983941270.176122</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1685662056299733</v>
+        <v>0.1941294159460762</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05888944577381006</v>
+        <v>0.05252664466519259</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1868595358.864208</v>
+        <v>2587581706.700617</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08747338422639545</v>
+        <v>0.07773177701523194</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03871874520834637</v>
+        <v>0.04214423041072438</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4886002777.944457</v>
+        <v>4785737429.116341</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1410533324313568</v>
+        <v>0.1281461579290805</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05332780441188614</v>
+        <v>0.03344856575613458</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1691011489.386366</v>
+        <v>1755717448.53248</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1056642045767689</v>
+        <v>0.1608939406829759</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04012092124519229</v>
+        <v>0.02854836069342818</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2358980377.993898</v>
+        <v>2215768445.844603</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1208991226846216</v>
+        <v>0.1011968578038888</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05287100103098055</v>
+        <v>0.0438792961707415</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1927802666.346136</v>
+        <v>1517328592.600254</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1140761301597055</v>
+        <v>0.1352511977664755</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04382387788713171</v>
+        <v>0.03344892529456064</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4359504334.018763</v>
+        <v>4596754439.627665</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1075726181543913</v>
+        <v>0.1421884154607815</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0264600209561076</v>
+        <v>0.02034977182275151</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3421809358.023502</v>
+        <v>2705735566.470517</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1078357592996911</v>
+        <v>0.08940958993243721</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02465874393232019</v>
+        <v>0.02861878529286291</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3390604199.009972</v>
+        <v>2101073607.124039</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1366551953916609</v>
+        <v>0.1090452987694702</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02471589542311345</v>
+        <v>0.02682010803314173</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3612189233.91612</v>
+        <v>3766249803.011554</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1513826255210061</v>
+        <v>0.1415717919662686</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02196412481268472</v>
+        <v>0.01970746303668706</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2547298778.40187</v>
+        <v>2933302593.03357</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1891255773860046</v>
+        <v>0.2231602273035718</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05780399659949541</v>
+        <v>0.05495955123873508</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_351.xlsx
+++ b/output/fit_clients/fit_round_351.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2263094123.811535</v>
+        <v>2425761463.51826</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09077907519448465</v>
+        <v>0.09870179360482664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04305757558361845</v>
+        <v>0.04315798363213213</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1643852080.974869</v>
+        <v>2289502074.008356</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1649367367036974</v>
+        <v>0.1559797503047735</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03600678478297991</v>
+        <v>0.0436187356970953</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3452466075.302135</v>
+        <v>3772846399.673607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1438174400139337</v>
+        <v>0.1342942549616075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02935702530114933</v>
+        <v>0.02643175843818605</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>181</v>
+      </c>
+      <c r="J4" t="n">
+        <v>351</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2881531286.090494</v>
+        <v>2699790385.504187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09665490628891349</v>
+        <v>0.08029464646133408</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04771094649728052</v>
+        <v>0.03892384898806339</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>141</v>
+      </c>
+      <c r="J5" t="n">
+        <v>350</v>
+      </c>
+      <c r="K5" t="n">
+        <v>42.00683365208784</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2078601431.622121</v>
+        <v>2758780504.515699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1187732344024117</v>
+        <v>0.1111888367028738</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04388431928660739</v>
+        <v>0.03903863050344638</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2811119329.68044</v>
+        <v>3004087573.603836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09655278971981857</v>
+        <v>0.08828271071933472</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03531317748586181</v>
+        <v>0.03827691531971827</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3679873702.828506</v>
+        <v>3757235479.693552</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1899528744373301</v>
+        <v>0.1629808052585106</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02936757937136737</v>
+        <v>0.02222466669353176</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>351</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2061976211.341856</v>
+        <v>1638986745.022511</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1398820406357384</v>
+        <v>0.153257617756686</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02354546819928927</v>
+        <v>0.03273488947988828</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5510139960.273178</v>
+        <v>5868569863.212463</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1611207053353538</v>
+        <v>0.1722848075664864</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03613059734070653</v>
+        <v>0.03945245512835614</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>296</v>
+      </c>
+      <c r="J10" t="n">
+        <v>351</v>
+      </c>
+      <c r="K10" t="n">
+        <v>64.9079598524235</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4096836852.043008</v>
+        <v>3588042724.096309</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1346403210967942</v>
+        <v>0.1862956977712599</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03797402947176907</v>
+        <v>0.04369827602150243</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>145</v>
+      </c>
+      <c r="J11" t="n">
+        <v>349</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2295192804.417644</v>
+        <v>2989568617.804989</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1641200467269961</v>
+        <v>0.1498328979707863</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04377269337400871</v>
+        <v>0.05371310086217928</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3406477107.490905</v>
+        <v>3689459287.37625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1013985375748443</v>
+        <v>0.07599137828513614</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03100068515500786</v>
+        <v>0.02763275495879408</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>181</v>
+      </c>
+      <c r="J13" t="n">
+        <v>351</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3310214294.855275</v>
+        <v>2541132591.344695</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1444662035001074</v>
+        <v>0.1166682561751166</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03152326256974586</v>
+        <v>0.02781137052559125</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>349</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1169744615.41384</v>
+        <v>1117317927.200673</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1043014723393679</v>
+        <v>0.07636910809391567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04438378155871742</v>
+        <v>0.03022380546049033</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1801416115.703394</v>
+        <v>2601667124.009151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1037269226448307</v>
+        <v>0.08404540189341715</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0341539925435466</v>
+        <v>0.04550049048075027</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3533542263.480778</v>
+        <v>5320563803.17269</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1186741931610141</v>
+        <v>0.1326997897276418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03369682630426594</v>
+        <v>0.04802161686651747</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>165</v>
+      </c>
+      <c r="J17" t="n">
+        <v>351</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2739534647.09013</v>
+        <v>2971200792.703268</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1530244888146822</v>
+        <v>0.1407894837762945</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03182812561286977</v>
+        <v>0.02859742076955566</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>87</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50.401436036172</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1285997769.827939</v>
+        <v>1337702324.212839</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1803893549146525</v>
+        <v>0.1486863701182604</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02184170669869865</v>
+        <v>0.02230972471921409</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2187027221.313733</v>
+        <v>1883742876.690482</v>
       </c>
       <c r="F20" t="n">
-        <v>0.117491267257174</v>
+        <v>0.1584298188022853</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02397860502039275</v>
+        <v>0.02197238367913482</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1701978836.082416</v>
+        <v>2134822292.421294</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1007681139964907</v>
+        <v>0.07867251977545744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04508194052587167</v>
+        <v>0.02935131448215687</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2941284587.388066</v>
+        <v>3652474635.73074</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08777968895287108</v>
+        <v>0.1344783651319618</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04502298284931662</v>
+        <v>0.04791825113770963</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>95</v>
+      </c>
+      <c r="J22" t="n">
+        <v>351</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69.53237712752122</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1192859034.778297</v>
+        <v>1417554568.949241</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1667789973205865</v>
+        <v>0.1736071337192213</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0331971258337343</v>
+        <v>0.03463903411830759</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2570285101.35457</v>
+        <v>4082119922.874356</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09970676793004218</v>
+        <v>0.1003254164097524</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03149239594707315</v>
+        <v>0.02921022320464193</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>104</v>
+      </c>
+      <c r="J24" t="n">
+        <v>351</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>950444426.8168415</v>
+        <v>996515593.342786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1052839168466273</v>
+        <v>0.07976731046889217</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02804725143057872</v>
+        <v>0.02362273724919529</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1365617206.302026</v>
+        <v>1248199569.307789</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1003511327256123</v>
+        <v>0.09632614699969042</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03275793247661299</v>
+        <v>0.02796278217608893</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2890842112.738681</v>
+        <v>4613469199.913771</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1482382376537875</v>
+        <v>0.1085161514269407</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02515730388247596</v>
+        <v>0.02663316972344151</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>146</v>
+      </c>
+      <c r="J27" t="n">
+        <v>351</v>
+      </c>
+      <c r="K27" t="n">
+        <v>65.04264533027175</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2730963590.590867</v>
+        <v>3823080761.683442</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1153580021056288</v>
+        <v>0.1200101766501082</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03465062610055401</v>
+        <v>0.0376690350781617</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>79</v>
+      </c>
+      <c r="J28" t="n">
+        <v>351</v>
+      </c>
+      <c r="K28" t="n">
+        <v>80.67329092032817</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1458,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3898335697.559052</v>
+        <v>4822659946.273651</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1169759670381817</v>
+        <v>0.124939419167804</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04550474098235217</v>
+        <v>0.03333570638556707</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>313</v>
+      </c>
+      <c r="J29" t="n">
+        <v>351</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1844188556.580494</v>
+        <v>1814479010.99149</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1300907867263065</v>
+        <v>0.1130359658823117</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0369066805738372</v>
+        <v>0.03380514043230815</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1018092904.594785</v>
+        <v>1341852098.563625</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0710322578002303</v>
+        <v>0.1033201028243986</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05261208739248928</v>
+        <v>0.05267947639906582</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1369841837.092458</v>
+        <v>1345778098.770268</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1064584066181817</v>
+        <v>0.09860966248585021</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02350624577693364</v>
+        <v>0.0240156654983465</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2442366075.84082</v>
+        <v>2590065659.061798</v>
       </c>
       <c r="F33" t="n">
-        <v>0.202193721385525</v>
+        <v>0.1472906510293947</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04007061242576863</v>
+        <v>0.03816934478705027</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1259920884.875696</v>
+        <v>1128328520.075831</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07739467922418442</v>
+        <v>0.098814282585202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01960609704506494</v>
+        <v>0.02009823111000841</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1076851678.113662</v>
+        <v>1072567026.116342</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07304305888440593</v>
+        <v>0.1039995843759222</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03045364958061704</v>
+        <v>0.04100396162732316</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2839139188.681475</v>
+        <v>3163990117.27771</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1166394585868758</v>
+        <v>0.1464491882447245</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02092218092614487</v>
+        <v>0.02811009267511592</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2605558196.925823</v>
+        <v>2850826867.859215</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08515117759392397</v>
+        <v>0.1015329571277513</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03098519416073327</v>
+        <v>0.03644913808801011</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1881539103.011063</v>
+        <v>1331629310.767869</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1002501413415221</v>
+        <v>0.1143119379124262</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02732352340870421</v>
+        <v>0.02962088419173479</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1518618603.462854</v>
+        <v>1427730956.034293</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1941150769231516</v>
+        <v>0.1460493257547169</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0329024684061984</v>
+        <v>0.02177834099426989</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1709990147.112471</v>
+        <v>1538253352.562547</v>
       </c>
       <c r="F40" t="n">
-        <v>0.115422514643724</v>
+        <v>0.142504966803555</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05424682760504384</v>
+        <v>0.03667015624192798</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2835106842.394681</v>
+        <v>2178092877.136582</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1406763023709888</v>
+        <v>0.1250403445872295</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03128912301498499</v>
+        <v>0.03273534236302426</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4192204616.898798</v>
+        <v>3190231159.811108</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07793092552628178</v>
+        <v>0.1089672535189001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03890612462553815</v>
+        <v>0.04522462807572614</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>153</v>
+      </c>
+      <c r="J42" t="n">
+        <v>350</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51.33080383072874</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2128537035.062536</v>
+        <v>2135519862.856175</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1552470509355187</v>
+        <v>0.1682564245629185</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01936385329060289</v>
+        <v>0.02546825015187204</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1429784797.99202</v>
+        <v>1719276985.633635</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09086968724740804</v>
+        <v>0.09490765217025035</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02794847095976636</v>
+        <v>0.03170931196371175</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2142357437.729438</v>
+        <v>2274508246.939429</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1692856873270296</v>
+        <v>0.1781264209050231</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05182303220030585</v>
+        <v>0.04866199404142396</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5437176008.904302</v>
+        <v>3497784680.962425</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1097306517910473</v>
+        <v>0.1719567705013698</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06015307431475038</v>
+        <v>0.04018822298773537</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>211</v>
+      </c>
+      <c r="J46" t="n">
+        <v>350</v>
+      </c>
+      <c r="K46" t="n">
+        <v>54.87240798266964</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4316614517.575674</v>
+        <v>4944769748.928881</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1304019472418897</v>
+        <v>0.1344633191009867</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04825101287726443</v>
+        <v>0.04644919193515711</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>157</v>
+      </c>
+      <c r="J47" t="n">
+        <v>350</v>
+      </c>
+      <c r="K47" t="n">
+        <v>57.18279086096866</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3014779223.996273</v>
+        <v>4311810502.827949</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1047200547186132</v>
+        <v>0.0987396788390949</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03906840873604564</v>
+        <v>0.03051569670090647</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>175</v>
+      </c>
+      <c r="J48" t="n">
+        <v>351</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1833558768.831342</v>
+        <v>1564468126.679722</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1524112360814635</v>
+        <v>0.1429104102243752</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03751008041906311</v>
+        <v>0.03180729833676062</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4107872948.632238</v>
+        <v>3069682439.258976</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1306964488475446</v>
+        <v>0.1434192611582708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04956579459182064</v>
+        <v>0.0452495669028957</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>115</v>
+      </c>
+      <c r="J50" t="n">
+        <v>347</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1024901850.560679</v>
+        <v>1171514544.566534</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1418045460502929</v>
+        <v>0.1444799209448864</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04210465127826102</v>
+        <v>0.03386310540431992</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4111608779.537928</v>
+        <v>4114153168.877112</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1045131497870312</v>
+        <v>0.08542613147774843</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04757696835684982</v>
+        <v>0.05756598534415414</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>209</v>
+      </c>
+      <c r="J52" t="n">
+        <v>351</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3346080093.869588</v>
+        <v>2573546395.693226</v>
       </c>
       <c r="F53" t="n">
-        <v>0.162811525366597</v>
+        <v>0.1456476412470193</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02593993136271835</v>
+        <v>0.03318427336651838</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3762505493.89407</v>
+        <v>3948810077.202965</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1061440852059863</v>
+        <v>0.1311399567273821</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04891611686698791</v>
+        <v>0.0403086143898802</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>184</v>
+      </c>
+      <c r="J54" t="n">
+        <v>351</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4056037807.244762</v>
+        <v>3641409142.394646</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1429446815377597</v>
+        <v>0.1887870405195496</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03019531568868462</v>
+        <v>0.02483750616990673</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>168</v>
+      </c>
+      <c r="J55" t="n">
+        <v>349</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1611639312.781126</v>
+        <v>1727715559.348987</v>
       </c>
       <c r="F56" t="n">
-        <v>0.157126662440011</v>
+        <v>0.1169427224900826</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05146430307515019</v>
+        <v>0.05775434395259207</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4537456392.559894</v>
+        <v>4440943987.448245</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1184976238805492</v>
+        <v>0.1789295427007862</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02052304099383179</v>
+        <v>0.01700664408973565</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>144</v>
+      </c>
+      <c r="J57" t="n">
+        <v>351</v>
+      </c>
+      <c r="K57" t="n">
+        <v>69.521475823819</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1391400785.816213</v>
+        <v>1601819288.609247</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1368028718064261</v>
+        <v>0.1972599210855317</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03640553734136528</v>
+        <v>0.03289670928580631</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5254505291.865845</v>
+        <v>3817547697.196439</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1294267893952084</v>
+        <v>0.1205851612848249</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04055417463824876</v>
+        <v>0.03094024110477562</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>169</v>
+      </c>
+      <c r="J59" t="n">
+        <v>351</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2463569338.774057</v>
+        <v>2943466839.011953</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1652458358305936</v>
+        <v>0.1928471718760897</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02765901367772916</v>
+        <v>0.02127056750050811</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>62</v>
+      </c>
+      <c r="J60" t="n">
+        <v>349</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2383996896.743075</v>
+        <v>2216130400.831744</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1604750899984451</v>
+        <v>0.1556297761491059</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0261089991507889</v>
+        <v>0.02498976644047479</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1593737333.724627</v>
+        <v>1754063278.323493</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1819157203364478</v>
+        <v>0.153390267760822</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04460269113351286</v>
+        <v>0.03268230435109525</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5210994154.833401</v>
+        <v>3464562753.727759</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09979139591045966</v>
+        <v>0.09010297327622015</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04412590712128578</v>
+        <v>0.0474272321846275</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>172</v>
+      </c>
+      <c r="J63" t="n">
+        <v>349</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3757377485.6258</v>
+        <v>4943417595.832957</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1676899603221531</v>
+        <v>0.1473107898878702</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02401903131017314</v>
+        <v>0.03042038128077805</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>173</v>
+      </c>
+      <c r="J64" t="n">
+        <v>351</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4003817480.459959</v>
+        <v>5731479942.554207</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1069064279124034</v>
+        <v>0.1256701302884878</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02952140304823759</v>
+        <v>0.02798864877963528</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>270</v>
+      </c>
+      <c r="J65" t="n">
+        <v>350</v>
+      </c>
+      <c r="K65" t="n">
+        <v>64.45632178239968</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2763,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5029482850.661206</v>
+        <v>3702895056.798035</v>
       </c>
       <c r="F66" t="n">
-        <v>0.141830715764956</v>
+        <v>0.1116214894165519</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04387973994347672</v>
+        <v>0.03386114385298113</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>173</v>
+      </c>
+      <c r="J66" t="n">
+        <v>351</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2378712144.921481</v>
+        <v>3070934935.327414</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09394592358437938</v>
+        <v>0.08277128054625417</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04477462318811992</v>
+        <v>0.03552213134658559</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3822935124.974324</v>
+        <v>3753401185.585733</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1179365911822891</v>
+        <v>0.1593860107877858</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05060868424591661</v>
+        <v>0.04171270735163947</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>191</v>
+      </c>
+      <c r="J68" t="n">
+        <v>350</v>
+      </c>
+      <c r="K68" t="n">
+        <v>61.95146309082919</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2196044432.29997</v>
+        <v>1768092252.198157</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1333655143783</v>
+        <v>0.1428747995462591</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05860175940908376</v>
+        <v>0.03729029945744758</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2899,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2637440882.849014</v>
+        <v>2540623337.438014</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09146530034406243</v>
+        <v>0.0730808613211497</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04712477295009361</v>
+        <v>0.03140506546476933</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="n">
+        <v>32.63263982274355</v>
       </c>
     </row>
     <row r="71">
@@ -2418,17 +2942,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3575191424.586737</v>
+        <v>3902940233.528717</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1839546318523969</v>
+        <v>0.123796236574137</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02871376787022848</v>
+        <v>0.02631816633396891</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>256</v>
+      </c>
+      <c r="J71" t="n">
+        <v>351</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2016324564.348603</v>
+        <v>2219081447.875875</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06842344926227044</v>
+        <v>0.1037292094164442</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03838036041517585</v>
+        <v>0.05136435697869929</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2916616633.757766</v>
+        <v>2657646911.565247</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09862250637871992</v>
+        <v>0.07548905943460962</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0520967877983978</v>
+        <v>0.03797968094430127</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3388673069.939775</v>
+        <v>2681567547.383981</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1324495772897717</v>
+        <v>0.1173613409286512</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03030871266148662</v>
+        <v>0.03128931820311415</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>95</v>
+      </c>
+      <c r="J74" t="n">
+        <v>348</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1568780485.73667</v>
+        <v>1768983286.45684</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1408364597611589</v>
+        <v>0.1098466483421743</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03606157492704849</v>
+        <v>0.02583563145483005</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3723021396.94575</v>
+        <v>3739807349.480399</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08211350456351076</v>
+        <v>0.07531752718039515</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02452038595755743</v>
+        <v>0.02134296686508987</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>166</v>
+      </c>
+      <c r="J76" t="n">
+        <v>350</v>
+      </c>
+      <c r="K76" t="n">
+        <v>60.29960838611836</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1400529763.891793</v>
+        <v>1567672592.162956</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1240876811940596</v>
+        <v>0.1412538102167749</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01982451320818952</v>
+        <v>0.02458305499400615</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3043926977.557879</v>
+        <v>4115433503.888248</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1141850288143446</v>
+        <v>0.1194813164423411</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05079385261162987</v>
+        <v>0.03801007367682789</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>174</v>
+      </c>
+      <c r="J78" t="n">
+        <v>351</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1767612655.970849</v>
+        <v>1908466042.1305</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1365426556992307</v>
+        <v>0.1525443021870339</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03115210915730538</v>
+        <v>0.03357856434738869</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3259,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3756012066.124349</v>
+        <v>4319220085.417315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06894303377997632</v>
+        <v>0.09114896049685874</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03524916391802956</v>
+        <v>0.02952692661630551</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>171</v>
+      </c>
+      <c r="J80" t="n">
+        <v>351</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4351382839.837304</v>
+        <v>4242584160.04935</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09843715870726449</v>
+        <v>0.1018575110732845</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02569025621010423</v>
+        <v>0.02674459636411565</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>162</v>
+      </c>
+      <c r="J81" t="n">
+        <v>350</v>
+      </c>
+      <c r="K81" t="n">
+        <v>60.04857209274288</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4174883864.30831</v>
+        <v>3971517351.816066</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1559450014563745</v>
+        <v>0.1980104678692592</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02013549601534275</v>
+        <v>0.02863016916991987</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>249</v>
+      </c>
+      <c r="J82" t="n">
+        <v>350</v>
+      </c>
+      <c r="K82" t="n">
+        <v>60.81408266149108</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1537889431.70414</v>
+        <v>2099233628.004676</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1496439372005306</v>
+        <v>0.1522498150106108</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04483781516383339</v>
+        <v>0.03597057151876597</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2379588943.642207</v>
+        <v>2154277675.292081</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1158575654333874</v>
+        <v>0.1103128164917369</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04155189835420093</v>
+        <v>0.03232326996584111</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3205609140.681606</v>
+        <v>2895845000.282527</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1328879924514694</v>
+        <v>0.1268190596944853</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04474830407771349</v>
+        <v>0.04690838668104414</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3473,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1752897296.491622</v>
+        <v>1965134543.806773</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1054168753855622</v>
+        <v>0.1593806060954799</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01790054061101637</v>
+        <v>0.0226975053154438</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1044571794.850847</v>
+        <v>1299196147.109209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1181323780678025</v>
+        <v>0.1692095882761053</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03164194864136535</v>
+        <v>0.03915083420818282</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2671194530.223333</v>
+        <v>3116263806.980659</v>
       </c>
       <c r="F88" t="n">
-        <v>0.137346160069185</v>
+        <v>0.140754767673734</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03079548620230626</v>
+        <v>0.02910113421666487</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2577124417.781541</v>
+        <v>2997184501.498214</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1298450417280491</v>
+        <v>0.1166544116763494</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04043180921383988</v>
+        <v>0.03029803985163941</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1336084778.972453</v>
+        <v>2029162550.919045</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1048184623140714</v>
+        <v>0.08557972843681314</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05567226677976085</v>
+        <v>0.04932937255198806</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1983941270.176122</v>
+        <v>1574505740.859489</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1941294159460762</v>
+        <v>0.173213855630239</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05252664466519259</v>
+        <v>0.04109564721757424</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2587581706.700617</v>
+        <v>2465434342.361403</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07773177701523194</v>
+        <v>0.0683522015648155</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04214423041072438</v>
+        <v>0.04426765681851783</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3718,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4785737429.116341</v>
+        <v>4003005476.498885</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1281461579290805</v>
+        <v>0.1020360535984707</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03344856575613458</v>
+        <v>0.04241025233367055</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>163</v>
+      </c>
+      <c r="J93" t="n">
+        <v>350</v>
+      </c>
+      <c r="K93" t="n">
+        <v>61.76691169366502</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1755717448.53248</v>
+        <v>2474615862.933261</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1608939406829759</v>
+        <v>0.1615316796278705</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02854836069342818</v>
+        <v>0.03421865021291452</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2215768445.844603</v>
+        <v>2542101258.193801</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1011968578038888</v>
+        <v>0.1111532827543835</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0438792961707415</v>
+        <v>0.03445280555735965</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1517328592.600254</v>
+        <v>2074488511.578423</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1352511977664755</v>
+        <v>0.1361238148108015</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03344892529456064</v>
+        <v>0.03210358175817644</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4596754439.627665</v>
+        <v>4483329738.004227</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1421884154607815</v>
+        <v>0.1620831954910472</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02034977182275151</v>
+        <v>0.02606874335917062</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>181</v>
+      </c>
+      <c r="J97" t="n">
+        <v>350</v>
+      </c>
+      <c r="K97" t="n">
+        <v>63.42416363652524</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2705735566.470517</v>
+        <v>3480743474.803027</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08940958993243721</v>
+        <v>0.1060604329257797</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02861878529286291</v>
+        <v>0.02947906611159004</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="n">
+        <v>60.33940689764623</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2101073607.124039</v>
+        <v>3343667239.225072</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1090452987694702</v>
+        <v>0.1009932078103166</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02682010803314173</v>
+        <v>0.03305679250234077</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3766249803.011554</v>
+        <v>3733540893.73524</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1415717919662686</v>
+        <v>0.1284288213659916</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01970746303668706</v>
+        <v>0.02403343379537989</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>159</v>
+      </c>
+      <c r="J100" t="n">
+        <v>350</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62.09167400354355</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2933302593.03357</v>
+        <v>2809171564.944923</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2231602273035718</v>
+        <v>0.1578208717448906</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05495955123873508</v>
+        <v>0.05394900135716094</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
